--- a/docs/卒業研究_残りまとめ.xlsx
+++ b/docs/卒業研究_残りまとめ.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Treatiseresearch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A52CB-BF06-48DA-9C17-8D88663C2086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A448A24F-5F6F-4228-8E8C-E9A07F9A061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2460" windowWidth="13395" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>AT</t>
     <phoneticPr fontId="1"/>
@@ -394,6 +395,178 @@
   </si>
   <si>
     <t>１．Conf、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンスゾーンとAT継続が一緒</t>
+    <rPh sb="10" eb="12">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bonus処理は基本ベルで、終了後CZ、レア役でAT抽選</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チュウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CZの残りゲーム数表示</t>
+    <rPh sb="3" eb="4">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CZ入賞時演出</t>
+    <rPh sb="2" eb="5">
+      <t>ニュウショウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT入賞時演出</t>
+    <rPh sb="2" eb="5">
+      <t>ニュウショウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT残りゲーム数表示</t>
+    <rPh sb="2" eb="3">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT継続残りゲーム数表示</t>
+    <rPh sb="2" eb="4">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bonusの残りゲーム数表示</t>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間違った問題の保存</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試遊の際にしてもらう内容の決定</t>
+    <rPh sb="0" eb="2">
+      <t>シユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しっかり確率の設定</t>
+    <rPh sb="4" eb="6">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーナス合算、小役確率等の表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガッサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出の強化</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -802,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1061,6 +1234,309 @@
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E8AD2B-CA75-42E6-9103-99738EEEDC08}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/docs/卒業研究_残りまとめ.xlsx
+++ b/docs/卒業研究_残りまとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Treatiseresearch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A448A24F-5F6F-4228-8E8C-E9A07F9A061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59DA80D-28F1-4618-98CB-274E1577EC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="14460" yWindow="1035" windowWidth="13395" windowHeight="13710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +600,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -693,6 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1253,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E8AD2B-CA75-42E6-9103-99738EEEDC08}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1314,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1343,7 +1350,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
       <c r="G5" s="1"/>
@@ -1356,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="6"/>
@@ -1373,8 +1380,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
@@ -1398,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1418,8 +1425,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
